--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Angptl3-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Angptl3-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.081251</v>
+        <v>0.030331</v>
       </c>
       <c r="H2">
-        <v>9.243753</v>
+        <v>0.090993</v>
       </c>
       <c r="I2">
-        <v>0.6013642694204735</v>
+        <v>0.005348220947889333</v>
       </c>
       <c r="J2">
-        <v>0.6013642694204734</v>
+        <v>0.005348220947889334</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N2">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q2">
-        <v>47.32444316300734</v>
+        <v>0.2858348651223334</v>
       </c>
       <c r="R2">
-        <v>425.919988467066</v>
+        <v>2.572513786101</v>
       </c>
       <c r="S2">
-        <v>0.0608606389426123</v>
+        <v>0.0003558886074161653</v>
       </c>
       <c r="T2">
-        <v>0.06086063894261229</v>
+        <v>0.0003558886074161653</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.081251</v>
+        <v>0.030331</v>
       </c>
       <c r="H3">
-        <v>9.243753</v>
+        <v>0.090993</v>
       </c>
       <c r="I3">
-        <v>0.6013642694204735</v>
+        <v>0.005348220947889333</v>
       </c>
       <c r="J3">
-        <v>0.6013642694204734</v>
+        <v>0.005348220947889334</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>151.777694</v>
       </c>
       <c r="O3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q3">
-        <v>155.8883904717313</v>
+        <v>1.534523078904667</v>
       </c>
       <c r="R3">
-        <v>1402.995514245582</v>
+        <v>13.810707710142</v>
       </c>
       <c r="S3">
-        <v>0.2004770983816073</v>
+        <v>0.001910611154330724</v>
       </c>
       <c r="T3">
-        <v>0.2004770983816072</v>
+        <v>0.001910611154330724</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.081251</v>
+        <v>0.030331</v>
       </c>
       <c r="H4">
-        <v>9.243753</v>
+        <v>0.090993</v>
       </c>
       <c r="I4">
-        <v>0.6013642694204735</v>
+        <v>0.005348220947889333</v>
       </c>
       <c r="J4">
-        <v>0.6013642694204734</v>
+        <v>0.005348220947889334</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N4">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O4">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P4">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q4">
-        <v>78.36304509055066</v>
+        <v>0.8141071724426667</v>
       </c>
       <c r="R4">
-        <v>705.267405814956</v>
+        <v>7.326964551984001</v>
       </c>
       <c r="S4">
-        <v>0.1007772025393353</v>
+        <v>0.001013632356445151</v>
       </c>
       <c r="T4">
-        <v>0.1007772025393353</v>
+        <v>0.001013632356445151</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>3.081251</v>
+        <v>0.030331</v>
       </c>
       <c r="H5">
-        <v>9.243753</v>
+        <v>0.090993</v>
       </c>
       <c r="I5">
-        <v>0.6013642694204735</v>
+        <v>0.005348220947889333</v>
       </c>
       <c r="J5">
-        <v>0.6013642694204734</v>
+        <v>0.005348220947889334</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N5">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q5">
-        <v>186.0371743563233</v>
+        <v>1.661002570409</v>
       </c>
       <c r="R5">
-        <v>1674.33456920691</v>
+        <v>14.949023133681</v>
       </c>
       <c r="S5">
-        <v>0.2392493295569186</v>
+        <v>0.002068088829697293</v>
       </c>
       <c r="T5">
-        <v>0.2392493295569186</v>
+        <v>0.002068088829697293</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.374521</v>
+        <v>3.081251</v>
       </c>
       <c r="H6">
-        <v>4.123563</v>
+        <v>9.243753</v>
       </c>
       <c r="I6">
-        <v>0.2682637074902689</v>
+        <v>0.5433124903202978</v>
       </c>
       <c r="J6">
-        <v>0.2682637074902689</v>
+        <v>0.5433124903202979</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N6">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q6">
-        <v>21.11104903198733</v>
+        <v>29.03725442593567</v>
       </c>
       <c r="R6">
-        <v>189.999441287886</v>
+        <v>261.335289833421</v>
       </c>
       <c r="S6">
-        <v>0.02714943582981016</v>
+        <v>0.03615384021264273</v>
       </c>
       <c r="T6">
-        <v>0.02714943582981016</v>
+        <v>0.03615384021264274</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.374521</v>
+        <v>3.081251</v>
       </c>
       <c r="H7">
-        <v>4.123563</v>
+        <v>9.243753</v>
       </c>
       <c r="I7">
-        <v>0.2682637074902689</v>
+        <v>0.5433124903202978</v>
       </c>
       <c r="J7">
-        <v>0.2682637074902689</v>
+        <v>0.5433124903202979</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>151.777694</v>
       </c>
       <c r="O7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q7">
-        <v>69.54054257819134</v>
+        <v>155.8883904717313</v>
       </c>
       <c r="R7">
-        <v>625.864883203722</v>
+        <v>1402.995514245582</v>
       </c>
       <c r="S7">
-        <v>0.08943120237351167</v>
+        <v>0.1940942444987866</v>
       </c>
       <c r="T7">
-        <v>0.08943120237351167</v>
+        <v>0.1940942444987866</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.374521</v>
+        <v>3.081251</v>
       </c>
       <c r="H8">
-        <v>4.123563</v>
+        <v>9.243753</v>
       </c>
       <c r="I8">
-        <v>0.2682637074902689</v>
+        <v>0.5433124903202978</v>
       </c>
       <c r="J8">
-        <v>0.2682637074902689</v>
+        <v>0.5433124903202979</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N8">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O8">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P8">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q8">
-        <v>34.95711680123066</v>
+        <v>82.70312680742933</v>
       </c>
       <c r="R8">
-        <v>314.6140512110759</v>
+        <v>744.328141266864</v>
       </c>
       <c r="S8">
-        <v>0.04495589006269519</v>
+        <v>0.102972394973096</v>
       </c>
       <c r="T8">
-        <v>0.0449558900626952</v>
+        <v>0.1029723949730961</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,14 +956,14 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.374521</v>
+        <v>3.081251</v>
       </c>
       <c r="H9">
-        <v>4.123563</v>
+        <v>9.243753</v>
       </c>
       <c r="I9">
-        <v>0.2682637074902689</v>
+        <v>0.5433124903202978</v>
       </c>
       <c r="J9">
-        <v>0.2682637074902689</v>
+        <v>0.5433124903202979</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N9">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q9">
-        <v>82.98966975862334</v>
+        <v>168.737128056289</v>
       </c>
       <c r="R9">
-        <v>746.90702782761</v>
+        <v>1518.634152506601</v>
       </c>
       <c r="S9">
-        <v>0.1067271792242519</v>
+        <v>0.2100920106357724</v>
       </c>
       <c r="T9">
-        <v>0.1067271792242519</v>
+        <v>0.2100920106357725</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,13 +1018,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6679959999999999</v>
+        <v>1.424064666666667</v>
       </c>
       <c r="H10">
-        <v>2.003988</v>
+        <v>4.272194</v>
       </c>
       <c r="I10">
-        <v>0.1303720230892577</v>
+        <v>0.2511032435928821</v>
       </c>
       <c r="J10">
-        <v>0.1303720230892577</v>
+        <v>0.2511032435928821</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N10">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q10">
-        <v>10.25964412997067</v>
+        <v>13.42017513178422</v>
       </c>
       <c r="R10">
-        <v>92.33679716973599</v>
+        <v>120.781576186058</v>
       </c>
       <c r="S10">
-        <v>0.01319420695396423</v>
+        <v>0.01670925426430271</v>
       </c>
       <c r="T10">
-        <v>0.01319420695396423</v>
+        <v>0.01670925426430271</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,13 +1080,13 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6679959999999999</v>
+        <v>1.424064666666667</v>
       </c>
       <c r="H11">
-        <v>2.003988</v>
+        <v>4.272194</v>
       </c>
       <c r="I11">
-        <v>0.1303720230892577</v>
+        <v>0.2511032435928821</v>
       </c>
       <c r="J11">
-        <v>0.1303720230892577</v>
+        <v>0.2511032435928821</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>151.777694</v>
       </c>
       <c r="O11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q11">
-        <v>33.79563082707466</v>
+        <v>72.04708373784844</v>
       </c>
       <c r="R11">
-        <v>304.1606774436719</v>
+        <v>648.4237536406359</v>
       </c>
       <c r="S11">
-        <v>0.04346218461609266</v>
+        <v>0.08970471915273473</v>
       </c>
       <c r="T11">
-        <v>0.04346218461609266</v>
+        <v>0.08970471915273476</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,13 +1142,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6679959999999999</v>
+        <v>1.424064666666667</v>
       </c>
       <c r="H12">
-        <v>2.003988</v>
+        <v>4.272194</v>
       </c>
       <c r="I12">
-        <v>0.1303720230892577</v>
+        <v>0.2511032435928821</v>
       </c>
       <c r="J12">
-        <v>0.1303720230892577</v>
+        <v>0.2511032435928821</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N12">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O12">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P12">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q12">
-        <v>16.98861944979733</v>
+        <v>38.22298173998578</v>
       </c>
       <c r="R12">
-        <v>152.897575048176</v>
+        <v>344.006835659872</v>
       </c>
       <c r="S12">
-        <v>0.02184786899459531</v>
+        <v>0.04759084843241604</v>
       </c>
       <c r="T12">
-        <v>0.02184786899459531</v>
+        <v>0.04759084843241606</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.424064666666667</v>
+      </c>
+      <c r="H13">
+        <v>4.272194</v>
+      </c>
+      <c r="I13">
+        <v>0.2511032435928821</v>
+      </c>
+      <c r="J13">
+        <v>0.2511032435928821</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>54.762539</v>
+      </c>
+      <c r="N13">
+        <v>164.287617</v>
+      </c>
+      <c r="O13">
+        <v>0.3866872460670236</v>
+      </c>
+      <c r="P13">
+        <v>0.3866872460670236</v>
+      </c>
+      <c r="Q13">
+        <v>77.98539684685532</v>
+      </c>
+      <c r="R13">
+        <v>701.8685716216979</v>
+      </c>
+      <c r="S13">
+        <v>0.09709842174342856</v>
+      </c>
+      <c r="T13">
+        <v>0.09709842174342859</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.135585</v>
+      </c>
+      <c r="H14">
+        <v>3.406755</v>
+      </c>
+      <c r="I14">
+        <v>0.2002360451389308</v>
+      </c>
+      <c r="J14">
+        <v>0.2002360451389308</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>9.423852333333334</v>
+      </c>
+      <c r="N14">
+        <v>28.271557</v>
+      </c>
+      <c r="O14">
+        <v>0.06654336290212845</v>
+      </c>
+      <c r="P14">
+        <v>0.06654336290212845</v>
+      </c>
+      <c r="Q14">
+        <v>10.70158535194834</v>
+      </c>
+      <c r="R14">
+        <v>96.31426816753502</v>
+      </c>
+      <c r="S14">
+        <v>0.01332437981776684</v>
+      </c>
+      <c r="T14">
+        <v>0.01332437981776684</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.135585</v>
+      </c>
+      <c r="H15">
+        <v>3.406755</v>
+      </c>
+      <c r="I15">
+        <v>0.2002360451389308</v>
+      </c>
+      <c r="J15">
+        <v>0.2002360451389308</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>50.59256466666667</v>
+      </c>
+      <c r="N15">
+        <v>151.777694</v>
+      </c>
+      <c r="O15">
+        <v>0.3572423751649123</v>
+      </c>
+      <c r="P15">
+        <v>0.3572423751649123</v>
+      </c>
+      <c r="Q15">
+        <v>57.45215754699667</v>
+      </c>
+      <c r="R15">
+        <v>517.06941792297</v>
+      </c>
+      <c r="S15">
+        <v>0.07153280035906022</v>
+      </c>
+      <c r="T15">
+        <v>0.07153280035906022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.6679959999999999</v>
-      </c>
-      <c r="H13">
-        <v>2.003988</v>
-      </c>
-      <c r="I13">
-        <v>0.1303720230892577</v>
-      </c>
-      <c r="J13">
-        <v>0.1303720230892577</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>60.37715666666667</v>
-      </c>
-      <c r="N13">
-        <v>181.13147</v>
-      </c>
-      <c r="O13">
-        <v>0.397844271305776</v>
-      </c>
-      <c r="P13">
-        <v>0.397844271305776</v>
-      </c>
-      <c r="Q13">
-        <v>40.33169914470667</v>
-      </c>
-      <c r="R13">
-        <v>362.9852923023599</v>
-      </c>
-      <c r="S13">
-        <v>0.05186776252460555</v>
-      </c>
-      <c r="T13">
-        <v>0.05186776252460555</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.135585</v>
+      </c>
+      <c r="H16">
+        <v>3.406755</v>
+      </c>
+      <c r="I16">
+        <v>0.2002360451389308</v>
+      </c>
+      <c r="J16">
+        <v>0.2002360451389308</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>26.84076266666667</v>
+      </c>
+      <c r="N16">
+        <v>80.522288</v>
+      </c>
+      <c r="O16">
+        <v>0.1895270158659356</v>
+      </c>
+      <c r="P16">
+        <v>0.1895270158659356</v>
+      </c>
+      <c r="Q16">
+        <v>30.47996747282667</v>
+      </c>
+      <c r="R16">
+        <v>274.3197072554401</v>
+      </c>
+      <c r="S16">
+        <v>0.03795014010397832</v>
+      </c>
+      <c r="T16">
+        <v>0.03795014010397833</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.135585</v>
+      </c>
+      <c r="H17">
+        <v>3.406755</v>
+      </c>
+      <c r="I17">
+        <v>0.2002360451389308</v>
+      </c>
+      <c r="J17">
+        <v>0.2002360451389308</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>54.762539</v>
+      </c>
+      <c r="N17">
+        <v>164.287617</v>
+      </c>
+      <c r="O17">
+        <v>0.3866872460670236</v>
+      </c>
+      <c r="P17">
+        <v>0.3866872460670236</v>
+      </c>
+      <c r="Q17">
+        <v>62.187517850315</v>
+      </c>
+      <c r="R17">
+        <v>559.687660652835</v>
+      </c>
+      <c r="S17">
+        <v>0.07742872485812537</v>
+      </c>
+      <c r="T17">
+        <v>0.07742872485812537</v>
       </c>
     </row>
   </sheetData>
